--- a/biology/Zoologie/Anodonthyla_rouxae/Anodonthyla_rouxae.xlsx
+++ b/biology/Zoologie/Anodonthyla_rouxae/Anodonthyla_rouxae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla rouxae est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla rouxae est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des monts Anosy dans le Sud-Est de Madagascar. Elle se rencontre entre 1 548 et 1 959 m d'altitude[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des monts Anosy dans le Sud-Est de Madagascar. Elle se rencontre entre 1 548 et 1 959 m d'altitude,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anodonthyla rouxae mesure de 24 à 29 mm pour les mâles et de 24 à 28 mm pour les femelles. Son dos varie du brun au grisâtre avec des taches irrégulières. Son ventre est blanchâtre avec des taches noires et ce plus particulièrement chez les mâles. La peau de son dos est lisse. Les mâles ont un seul sac vocal[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anodonthyla rouxae mesure de 24 à 29 mm pour les mâles et de 24 à 28 mm pour les femelles. Son dos varie du brun au grisâtre avec des taches irrégulières. Son ventre est blanchâtre avec des taches noires et ce plus particulièrement chez les mâles. La peau de son dos est lisse. Les mâles ont un seul sac vocal.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ponte comprend de 13 à 50 œufs d'un diamètre d'environ 2,5 mm qui sont pondus dans des troncs de bambous (d'un diamètre de 15 à 20 mm) ou à l'embranchement des feuilles de végétaux tels que des plantes du genre Pandanus[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ponte comprend de 13 à 50 œufs d'un diamètre d'environ 2,5 mm qui sont pondus dans des troncs de bambous (d'un diamètre de 15 à 20 mm) ou à l'embranchement des feuilles de végétaux tels que des plantes du genre Pandanus.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Rolande Roux-Estève[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Rolande Roux-Estève.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Guibé, 1974 : Batraciens nouveaux de Madagascar. Bulletin du Museum National d'Histoire Naturelle, sér. 3, Zoologie, vol. 171, p. 1169-1192 (texte intégral).</t>
         </is>
